--- a/results/DRSA/FileVC_DRSA_DOMApriori_NEW0.xlsx
+++ b/results/DRSA/FileVC_DRSA_DOMApriori_NEW0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="217">
   <si>
     <t>name</t>
   </si>
@@ -509,643 +509,139 @@
     <t>Reguła 45</t>
   </si>
   <si>
-    <t>Reguła 46</t>
-  </si>
-  <si>
-    <t>Reguła 47</t>
-  </si>
-  <si>
-    <t>Reguła 48</t>
-  </si>
-  <si>
-    <t>Reguła 49</t>
-  </si>
-  <si>
-    <t>Reguła 50</t>
-  </si>
-  <si>
-    <t>Reguła 51</t>
-  </si>
-  <si>
-    <t>Reguła 52</t>
-  </si>
-  <si>
-    <t>Reguła 53</t>
-  </si>
-  <si>
-    <t>Reguła 54</t>
-  </si>
-  <si>
-    <t>Reguła 55</t>
-  </si>
-  <si>
-    <t>Reguła 56</t>
-  </si>
-  <si>
-    <t>Reguła 57</t>
-  </si>
-  <si>
-    <t>Reguła 58</t>
-  </si>
-  <si>
-    <t>Reguła 59</t>
-  </si>
-  <si>
-    <t>Reguła 60</t>
-  </si>
-  <si>
-    <t>Reguła 61</t>
-  </si>
-  <si>
-    <t>Reguła 62</t>
-  </si>
-  <si>
-    <t>Reguła 63</t>
-  </si>
-  <si>
-    <t>Reguła 64</t>
-  </si>
-  <si>
-    <t>Reguła 65</t>
-  </si>
-  <si>
-    <t>Reguła 66</t>
-  </si>
-  <si>
-    <t>Reguła 67</t>
-  </si>
-  <si>
-    <t>Reguła 68</t>
-  </si>
-  <si>
-    <t>Reguła 69</t>
-  </si>
-  <si>
-    <t>Reguła 70</t>
-  </si>
-  <si>
-    <t>Reguła 71</t>
-  </si>
-  <si>
-    <t>Reguła 72</t>
-  </si>
-  <si>
-    <t>Reguła 73</t>
-  </si>
-  <si>
-    <t>Reguła 74</t>
-  </si>
-  <si>
-    <t>Reguła 75</t>
-  </si>
-  <si>
-    <t>Reguła 76</t>
-  </si>
-  <si>
-    <t>Reguła 77</t>
-  </si>
-  <si>
-    <t>Reguła 78</t>
-  </si>
-  <si>
-    <t>Reguła 79</t>
-  </si>
-  <si>
-    <t>Reguła 80</t>
-  </si>
-  <si>
-    <t>Reguła 81</t>
-  </si>
-  <si>
-    <t>Reguła 82</t>
-  </si>
-  <si>
-    <t>Reguła 83</t>
-  </si>
-  <si>
-    <t>Reguła 84</t>
-  </si>
-  <si>
-    <t>Reguła 85</t>
-  </si>
-  <si>
-    <t>Reguła 86</t>
-  </si>
-  <si>
-    <t>Reguła 87</t>
-  </si>
-  <si>
-    <t>Reguła 88</t>
-  </si>
-  <si>
-    <t>Reguła 89</t>
-  </si>
-  <si>
-    <t>Reguła 90</t>
-  </si>
-  <si>
-    <t>Reguła 91</t>
-  </si>
-  <si>
-    <t>Reguła 92</t>
-  </si>
-  <si>
-    <t>Reguła 93</t>
-  </si>
-  <si>
-    <t>Reguła 94</t>
-  </si>
-  <si>
-    <t>Reguła 95</t>
-  </si>
-  <si>
-    <t>Reguła 96</t>
-  </si>
-  <si>
-    <t>Reguła 97</t>
-  </si>
-  <si>
-    <t>Reguła 98</t>
-  </si>
-  <si>
-    <t>Reguła 99</t>
-  </si>
-  <si>
-    <t>Reguła 100</t>
-  </si>
-  <si>
-    <t>Reguła 101</t>
-  </si>
-  <si>
-    <t>Reguła 102</t>
-  </si>
-  <si>
-    <t>Reguła 103</t>
-  </si>
-  <si>
-    <t>Reguła 104</t>
-  </si>
-  <si>
-    <t>Reguła 105</t>
-  </si>
-  <si>
-    <t>Reguła 106</t>
-  </si>
-  <si>
-    <t>Reguła 107</t>
-  </si>
-  <si>
-    <t>Reguła 108</t>
-  </si>
-  <si>
-    <t>Reguła 109</t>
-  </si>
-  <si>
-    <t>Reguła 110</t>
-  </si>
-  <si>
-    <t>Reguła 111</t>
-  </si>
-  <si>
-    <t>Reguła 112</t>
-  </si>
-  <si>
-    <t>Reguła 113</t>
-  </si>
-  <si>
-    <t>Reguła 114</t>
-  </si>
-  <si>
-    <t>Reguła 115</t>
-  </si>
-  <si>
-    <t>Reguła 116</t>
-  </si>
-  <si>
-    <t>Reguła 117</t>
-  </si>
-  <si>
-    <t>Reguła 118</t>
-  </si>
-  <si>
-    <t>Reguła 119</t>
-  </si>
-  <si>
-    <t>Reguła 120</t>
-  </si>
-  <si>
-    <t>Reguła 121</t>
-  </si>
-  <si>
-    <t>Reguła 122</t>
-  </si>
-  <si>
-    <t>Reguła 123</t>
-  </si>
-  <si>
-    <t>Reguła 124</t>
-  </si>
-  <si>
-    <t>Reguła 125</t>
-  </si>
-  <si>
-    <t>Reguła 126</t>
-  </si>
-  <si>
-    <t>Reguła 127</t>
-  </si>
-  <si>
-    <t>Reguła 128</t>
-  </si>
-  <si>
-    <t>Reguła 129</t>
-  </si>
-  <si>
-    <t>(age &gt;=  23.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(cleavage_stage &gt;=  2.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a3', 'a7']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  1.0) =&gt; (class &lt;= 1) ['a15', 'a24', 'a7', 'a9', 'a11', 'a1', 'a21', 'a17', 'a10', 'a2', 'a6', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a23', 'a13', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (endometrium &gt;=  1.0) =&gt; (class &lt;= 1) ['a15', 'a24', 'a7', 'a9', 'a11', 'a1', 'a21', 'a17', 'a10', 'a2', 'a6', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (endometrium &gt;=  2.0) =&gt; (class &lt;= 1) ['a17', 'a10', 'a2', 'a6', 'a7']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (endometrium &gt;=  2.0) =&gt; (class &lt;= 1) ['a19', 'a7', 'a23', 'a17', 'a10', 'a16', 'a2', 'a6', 'a14', 'a25']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (sperm &gt;=  1.0) =&gt; (class &lt;= 1) ['a15', 'a24', 'a7', 'a9', 'a11', 'a1', 'a21', 'a17', 'a10', 'a2', 'a6', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a12', 'a4', 'a5', 'a13', 'a22', 'a25']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  4.0) =&gt; (class &lt;= 1) ['a15', 'a24', 'a9', 'a11', 'a1', 'a21', 'a10', 'a2', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  2.0) =&gt; (class &lt;= 1) ['a24', 'a11', 'a10', 'a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  5.0) =&gt; (class &lt;= 1) ['a15', 'a24', 'a7', 'a9', 'a11', 'a1', 'a21', 'a10', 'a2', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  6.0) =&gt; (class &lt;= 1) ['a15', 'a24', 'a7', 'a9', 'a11', 'a1', 'a21', 'a10', 'a2', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  3.0) =&gt; (class &lt;= 1) ['a15', 'a24', 'a11', 'a10', 'a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a15', 'a24', 'a7', 'a9', 'a11', 'a1', 'a21', 'a17', 'a10', 'a2', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a15', 'a24', 'a7', 'a9', 'a11', 'a1', 'a21', 'a17', 'a10', 'a2', 'a6', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (frozen_embryos &lt;=  4.0) =&gt; (class &lt;= 1) ['a15', 'a19', 'a22', 'a24', 'a9', 'a4', 'a11', 'a12', 'a1', 'a21', 'a10', 'a23', 'a2', 'a14', 'a5', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (frozen_embryos &lt;=  5.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a10', 'a14', 'a9', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (frozen_embryos &lt;=  6.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a10', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a15', 'a24', 'a7', 'a9', 'a11', 'a1', 'a21', 'a2', 'a6', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a6', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (cleavage_stage &gt;=  2.0) =&gt; (class &lt;= 1) ['a15', 'a24', 'a7', 'a9', 'a11', 'a1', 'a21', 'a17', 'a10', 'a2', 'a6', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a15', 'a24', 'a7', 'a9', 'a11', 'a1', 'a21', 'a2', 'a6', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (cleavage_stage &gt;=  6.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a6', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a15', 'a19', 'a22', 'a24', 'a7', 'a9', 'a18', 'a4', 'a11', 'a12', 'a1', 'a21', 'a23', 'a2', 'a6', 'a5', 'a3', 'a20']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a6', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (cleavage_stage &gt;=  2.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a18', 'a14', 'a9', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (cleavage_stage &gt;=  6.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a6', 'a22', 'a3', 'a20']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (endometrium &gt;=  2.0) =&gt; (class &lt;= 1) ['a19', 'a7', 'a23', 'a17', 'a10', 'a16', 'a2', 'a6', 'a14', 'a25']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a12', 'a4', 'a5', 'a13', 'a22', 'a25']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (frozen_embryos &lt;=  4.0) =&gt; (class &lt;= 1) ['a1', 'a23', 'a3']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (frozen_embryos &lt;=  5.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a23', 'a13', 'a3']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (frozen_embryos &lt;=  6.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a23', 'a13', 'a3']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a23', 'a13', 'a3']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a23', 'a13', 'a3']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (frozen_embryos &lt;=  4.0) =&gt; (class &lt;= 1) ['a15', 'a19', 'a22', 'a24', 'a9', 'a4', 'a11', 'a12', 'a1', 'a21', 'a10', 'a23', 'a2', 'a14', 'a5', 'a3']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (frozen_embryos &lt;=  5.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a10', 'a14', 'a9', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (frozen_embryos &lt;=  6.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a10', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a1', 'a23', 'a3', 'a7']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a1', 'a23', 'a3', 'a7']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a15', 'a19', 'a22', 'a24', 'a7', 'a9', 'a18', 'a4', 'a11', 'a12', 'a1', 'a21', 'a23', 'a2', 'a6', 'a5', 'a3', 'a20']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a6', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (cleavage_stage &gt;=  2.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a18', 'a14', 'a9', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (cleavage_stage &gt;=  6.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a6', 'a22', 'a3', 'a20']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a12', 'a4', 'a5', 'a13', 'a22', 'a25']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) &amp; (frozen_embryos &lt;=  4.0) =&gt; (class &lt;= 1) ['a15', 'a19', 'a22', 'a24', 'a9', 'a4', 'a11', 'a12', 'a1', 'a21', 'a10', 'a23', 'a2', 'a14', 'a5', 'a3']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) &amp; (frozen_embryos &lt;=  5.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a10', 'a14', 'a9', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) &amp; (frozen_embryos &lt;=  6.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a10', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) &amp; (frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  2.0) &amp; (frozen_embryos &lt;=  4.0) =&gt; (class &lt;= 1) ['a19', 'a10', 'a23', 'a2', 'a14']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  2.0) &amp; (frozen_embryos &lt;=  5.0) =&gt; (class &lt;= 1) ['a19', 'a10', 'a23', 'a2', 'a14', 'a7']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  2.0) &amp; (frozen_embryos &lt;=  6.0) =&gt; (class &lt;= 1) ['a19', 'a10', 'a23', 'a2', 'a14', 'a7']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  2.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a19', 'a17', 'a10', 'a23', 'a2', 'a14', 'a7']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  2.0) &amp; (frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a19', 'a7', 'a23', 'a17', 'a10', 'a16', 'a2', 'a6', 'a14', 'a25']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a15', 'a19', 'a22', 'a24', 'a7', 'a9', 'a18', 'a4', 'a11', 'a12', 'a1', 'a21', 'a23', 'a2', 'a6', 'a5', 'a3', 'a20']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a6', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) &amp; (cleavage_stage &gt;=  2.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a18', 'a14', 'a9', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) &amp; (cleavage_stage &gt;=  6.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a6', 'a22', 'a3', 'a20']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  2.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a19', 'a23', 'a2', 'a6', 'a7']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  2.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a19', 'a7', 'a23', 'a2', 'a6', 'a14']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (frozen_embryos &lt;=  4.0) =&gt; (class &lt;= 1) ['a15', 'a19', 'a22', 'a24', 'a9', 'a4', 'a11', 'a12', 'a1', 'a21', 'a10', 'a23', 'a2', 'a14', 'a5', 'a3']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (frozen_embryos &lt;=  5.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a10', 'a14', 'a9', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (frozen_embryos &lt;=  6.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a10', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (frozen_embryos &lt;=  5.0) =&gt; (class &lt;= 1) ['a12', 'a4', 'a5', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (frozen_embryos &lt;=  6.0) =&gt; (class &lt;= 1) ['a12', 'a4', 'a5', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a12', 'a4', 'a5', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a12', 'a4', 'a5', 'a13', 'a22', 'a25']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a15', 'a19', 'a22', 'a24', 'a7', 'a9', 'a18', 'a4', 'a11', 'a12', 'a1', 'a21', 'a23', 'a2', 'a6', 'a5', 'a3', 'a20']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a6', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (cleavage_stage &gt;=  2.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a1', 'a18', 'a14', 'a9', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (cleavage_stage &gt;=  6.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a6', 'a22', 'a3', 'a20']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  4.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a15', 'a19', 'a22', 'a24', 'a9', 'a4', 'a11', 'a12', 'a1', 'a21', 'a23', 'a2', 'a5', 'a3']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  4.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  4.0) &amp; (cleavage_stage &gt;=  6.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  5.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  5.0) &amp; (cleavage_stage &gt;=  6.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a22', 'a3', 'a20']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  6.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  7.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a9', 'a11', 'a23', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a1', 'a17', 'a10', 'a16', 'a18', 'a9', 'a8', 'a7', 'a25', 'a4', 'a11', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(pregnancy &gt;=  0.0) =&gt; (class &gt;= 2) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  1.0) =&gt; (class &gt;= 2) ['a19', 'a24', 'a12', 'a21', 'a5', 'a15', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a20', 'a25', 'a4', 'a11', 'a2', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(endometrium &lt;=  2.0) =&gt; (class &gt;= 2) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  1.0) =&gt; (class &gt;= 2) ['a19', 'a24', 'a21', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a11', 'a23', 'a2', 'a6']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &gt;=  1.0) =&gt; (class &gt;= 2) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(cleavage_stage &lt;=  5.0) =&gt; (class &gt;= 2) ['a15', 'a14', 'a19', 'a24', 'a18', 'a4', 'a12', 'a1', 'a8', 'a21', 'a17', 'a10', 'a16', 'a2', 'a13', 'a5', 'a7', 'a25']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  37.0) =&gt; (class &gt;= 2) ['a22', 'a24', 'a9', 'a4', 'a11', 'a12', 'a1', 'a8', 'a13', 'a21', 'a17', 'a10', 'a16', 'a18', 'a6', 'a5', 'a7', 'a25']</t>
-  </si>
-  <si>
-    <t>(pregnancy &gt;=  1.0) =&gt; (class &gt;= 2) ['a19', 'a25', 'a4', 'a12', 'a23', 'a8', 'a16', 'a18', 'a13', 'a5', 'a14', 'a20']</t>
-  </si>
-  <si>
-    <t>(endometrium &lt;=  1.0) =&gt; (class &gt;= 2) ['a15', 'a22', 'a24', 'a9', 'a4', 'a11', 'a12', 'a1', 'a8', 'a21', 'a18', 'a13', 'a5', 'a3', 'a20']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a4', 'a11', 'a23', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &gt;=  2.0) =&gt; (class &gt;= 2) ['a19', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  34.0) =&gt; (class &gt;= 2) ['a24', 'a9', 'a12', 'a11', 'a1', 'a8', 'a13', 'a21', 'a16', 'a18', 'a6', 'a5', 'a7', 'a25']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  32.0) =&gt; (class &gt;= 2) ['a24', 'a9', 'a12', 'a11', 'a1', 'a21', 'a16', 'a6', 'a7', 'a25']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6', 'a25']</t>
-  </si>
-  <si>
-    <t>(cleavage_stage &lt;=  8.0) =&gt; (class &gt;= 2) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  31.0) =&gt; (class &gt;= 2) ['a24', 'a9', 'a12', 'a11', 'a1', 'a7', 'a25']</t>
-  </si>
-  <si>
-    <t>(cleavage_stage &lt;=  9.0) =&gt; (class &gt;= 2) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  41.0) =&gt; (class &gt;= 2) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a9', 'a8', 'a7', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  4.0) =&gt; (class &gt;= 2) ['a19', 'a24', 'a6', 'a12', 'a21', 'a5', 'a15', 'a1', 'a17', 'a10', 'a16', 'a18', 'a14', 'a9', 'a8', 'a7', 'a3', 'a20', 'a25', 'a4', 'a11', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  29.0) =&gt; (class &gt;= 2) ['a24', 'a11', 'a1', 'a7', 'a25']</t>
-  </si>
-  <si>
-    <t>(pregnancy &gt;=  0.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6', 'a25']</t>
-  </si>
-  <si>
-    <t>(pregnancy &gt;=  1.0) &amp; (frozen_embryos &gt;=  2.0) =&gt; (class &gt;= 2) ['a19', 'a25', 'a4', 'a12', 'a23', 'a8', 'a16', 'a18', 'a13', 'a5', 'a14', 'a20']</t>
-  </si>
-  <si>
-    <t>(pregnancy &gt;=  1.0) &amp; (cleavage_stage &lt;=  5.0) =&gt; (class &gt;= 2) ['a19', 'a4', 'a12', 'a8', 'a16', 'a18', 'a13', 'a5', 'a14', 'a25']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  1.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6', 'a25']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  4.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6', 'a25']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  1.0) &amp; (cleavage_stage &lt;=  5.0) =&gt; (class &gt;= 2) ['a15', 'a19', 'a24', 'a18', 'a4', 'a12', 'a8', 'a21', 'a17', 'a10', 'a16', 'a2', 'a14', 'a5', 'a25']</t>
-  </si>
-  <si>
-    <t>(endometrium &lt;=  2.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6', 'a25']</t>
-  </si>
-  <si>
-    <t>(endometrium &lt;=  1.0) &amp; (frozen_embryos &gt;=  2.0) =&gt; (class &gt;= 2) ['a15', 'a22', 'a9', 'a4', 'a11', 'a12', 'a1', 'a8', 'a21', 'a18', 'a13', 'a5', 'a3', 'a20']</t>
-  </si>
-  <si>
-    <t>(endometrium &lt;=  1.0) &amp; (cleavage_stage &lt;=  5.0) =&gt; (class &gt;= 2) ['a15', 'a24', 'a4', 'a12', 'a1', 'a8', 'a21', 'a18', 'a13', 'a5']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  1.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6']</t>
+    <t>(age &gt;=  23.0) =&gt; (class &lt;= 1) ['a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  0.0) =&gt; (class &lt;= 1) ['a22', 'a2', 'a11', 'a24', 'a3', 'a15', 'a10', 'a7', 'a6', 'a1', 'a9', 'a17', 'a21']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a3', 'a7', 'a1', 'a13', 'a23']</t>
+  </si>
+  <si>
+    <t>(endometrium &gt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a14', 'a3']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(cleavage_stage &gt;=  2.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  33.0) =&gt; (class &lt;= 1) ['a18', 'a2', 'a22', 'a20', 'a19', 'a3', 'a15', 'a10', 'a5', 'a4', 'a17', 'a8', 'a13', 'a14', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  40.0) =&gt; (class &lt;= 1) ['a20', 'a15', 'a3', 'a14', 'a23']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a14', 'a18', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  32.0) =&gt; (class &lt;= 1) ['a18', 'a2', 'a22', 'a20', 'a19', 'a3', 'a15', 'a10', 'a5', 'a21', 'a6', 'a4', 'a17', 'a16', 'a8', 'a13', 'a14', 'a23']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  3.0) =&gt; (class &lt;= 1) ['a22', 'a25']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a7', 'a3', 'a1']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a22', 'a25', 'a5', 'a4', 'a12', 'a13']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a22', 'a2', 'a11', 'a24', 'a3', 'a15', 'a10', 'a7', 'a1', 'a9', 'a17', 'a21']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a22', 'a25', 'a5', 'a4', 'a12', 'a13']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  3.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a7', 'a3', 'a1', 'a23']</t>
+  </si>
+  <si>
+    <t>(endometrium &gt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a22', 'a25', 'a5', 'a4', 'a12', 'a13']</t>
+  </si>
+  <si>
+    <t>(endometrium &gt;=  2.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a2', 'a19', 'a10', 'a7', 'a17', 'a14', 'a23']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &lt;=  4.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a22', 'a2', 'a11', 'a24', 'a19', 'a3', 'a15', 'a5', 'a1', 'a4', 'a12', 'a9', 'a21', 'a23']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &lt;=  5.0) &amp; (cleavage_stage &gt;=  6.0) =&gt; (class &lt;= 1) ['a22', 'a11', 'a20', 'a3', 'a9', 'a23']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &lt;=  7.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a22', 'a11', 'a3', 'a9', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a11', 'a6', 'a1', 'a8', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a18', 'a25', 'a19', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(pregnancy &gt;=  0.0) =&gt; (class &gt;= 2) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(attempts &lt;=  1.0) =&gt; (class &gt;= 2) ['a11', 'a6', 'a8', 'a20', 'a10', 'a5', 'a17', 'a22', 'a2', 'a24', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(endometrium &lt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &gt;=  1.0) =&gt; (class &gt;= 2) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(pregnancy &gt;=  1.0) =&gt; (class &gt;= 2) ['a18', 'a25', 'a20', 'a19', 'a5', 'a4', 'a12', 'a16', 'a8', 'a13', 'a14', 'a23']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  34.0) =&gt; (class &gt;= 2) ['a18', 'a11', 'a25', 'a24', 'a5', 'a7', 'a21', 'a6', 'a1', 'a12', 'a9', 'a16', 'a8', 'a13']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) =&gt; (class &gt;= 2) ['a11', 'a25', 'a24', 'a7', 'a6', 'a1', 'a12', 'a9', 'a16', 'a21']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a25', 'a6']</t>
+  </si>
+  <si>
+    <t>(cleavage_stage &lt;=  9.0) =&gt; (class &gt;= 2) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) =&gt; (class &gt;= 2) ['a11', 'a6', 'a1', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(attempts &lt;=  4.0) =&gt; (class &gt;= 2) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
+  </si>
+  <si>
+    <t>(pregnancy &gt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a20', 'a19', 'a5', 'a4', 'a12', 'a16', 'a8', 'a13', 'a14', 'a23']</t>
+  </si>
+  <si>
+    <t>(attempts &lt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a2', 'a11', 'a24', 'a20', 'a19', 'a15', 'a10', 'a5', 'a6', 'a4', 'a12', 'a9', 'a16', 'a8', 'a17', 'a21', 'a14']</t>
+  </si>
+  <si>
+    <t>(attempts &lt;=  1.0) &amp; (frozen_embryos &gt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a11', 'a22', 'a25', 'a20', 'a19', 'a15', 'a10', 'a5', 'a6', 'a4', 'a12', 'a9', 'a16', 'a8', 'a17', 'a21', 'a14']</t>
+  </si>
+  <si>
+    <t>(endometrium &lt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a11', 'a24', 'a20', 'a3', 'a15', 'a5', 'a21', 'a1', 'a4', 'a12', 'a9', 'a8', 'a13']</t>
+  </si>
+  <si>
+    <t>(endometrium &lt;=  1.0) &amp; (frozen_embryos &gt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a11', 'a22', 'a20', 'a3', 'a15', 'a5', 'a21', 'a1', 'a4', 'a12', 'a9', 'a8', 'a13']</t>
   </si>
   <si>
     <t>(sperm &lt;=  2.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6']</t>
   </si>
   <si>
-    <t>(sperm &lt;=  2.0) &amp; (cleavage_stage &lt;=  5.0) =&gt; (class &gt;= 2) ['a15', 'a14', 'a19', 'a24', 'a18', 'a4', 'a12', 'a1', 'a8', 'a21', 'a17', 'a10', 'a16', 'a2', 'a13', 'a5', 'a7']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &gt;=  8.0) &amp; (cleavage_stage &lt;=  9.0) =&gt; (class &gt;= 2) ['a16', 'a6', 'a25']</t>
+    <t>(sperm &lt;=  2.0) &amp; (frozen_embryos &gt;=  3.0) =&gt; (class &gt;= 2) ['a18', 'a20', 'a19', 'a15', 'a7', 'a21', 'a6', 'a1', 'a12', 'a9', 'a16', 'a8', 'a17', 'a13', 'a14', 'a23']</t>
   </si>
   <si>
     <t>support</t>
@@ -2383,7 +1879,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>377</v>
+        <v>209</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2391,7 +1887,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>210</v>
       </c>
       <c r="B2">
         <v>0.45</v>
@@ -2399,7 +1895,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>211</v>
       </c>
       <c r="B3">
         <v>0.6</v>
@@ -2407,7 +1903,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>212</v>
       </c>
       <c r="B4">
         <v>0.6</v>
@@ -2428,18 +1924,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>382</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>383</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>216</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3443,7 +2939,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3462,7 +2958,7 @@
         <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3470,7 +2966,7 @@
         <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3478,7 +2974,7 @@
         <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3486,7 +2982,7 @@
         <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3494,7 +2990,7 @@
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3502,7 +2998,7 @@
         <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3510,7 +3006,7 @@
         <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3518,7 +3014,7 @@
         <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3526,7 +3022,7 @@
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3534,7 +3030,7 @@
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3542,7 +3038,7 @@
         <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3550,7 +3046,7 @@
         <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3558,7 +3054,7 @@
         <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3566,7 +3062,7 @@
         <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3574,7 +3070,7 @@
         <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3582,7 +3078,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3590,7 +3086,7 @@
         <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3598,7 +3094,7 @@
         <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>262</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3606,7 +3102,7 @@
         <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3614,7 +3110,7 @@
         <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3622,7 +3118,7 @@
         <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3630,7 +3126,7 @@
         <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3638,7 +3134,7 @@
         <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3646,7 +3142,7 @@
         <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3654,7 +3150,7 @@
         <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>269</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3662,7 +3158,7 @@
         <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3670,7 +3166,7 @@
         <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>271</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3678,7 +3174,7 @@
         <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3686,7 +3182,7 @@
         <v>144</v>
       </c>
       <c r="B30" t="s">
-        <v>273</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3694,7 +3190,7 @@
         <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3702,7 +3198,7 @@
         <v>146</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3710,7 +3206,7 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3718,7 +3214,7 @@
         <v>148</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3726,7 +3222,7 @@
         <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3734,7 +3230,7 @@
         <v>150</v>
       </c>
       <c r="B36" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3742,7 +3238,7 @@
         <v>151</v>
       </c>
       <c r="B37" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3750,7 +3246,7 @@
         <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>281</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3758,7 +3254,7 @@
         <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>282</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3766,7 +3262,7 @@
         <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>283</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3774,7 +3270,7 @@
         <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>284</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3782,7 +3278,7 @@
         <v>156</v>
       </c>
       <c r="B42" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3790,7 +3286,7 @@
         <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3798,7 +3294,7 @@
         <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3806,7 +3302,7 @@
         <v>159</v>
       </c>
       <c r="B45" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3814,679 +3310,7 @@
         <v>160</v>
       </c>
       <c r="B46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>162</v>
-      </c>
-      <c r="B48" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>165</v>
-      </c>
-      <c r="B51" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>166</v>
-      </c>
-      <c r="B52" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>169</v>
-      </c>
-      <c r="B55" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>170</v>
-      </c>
-      <c r="B56" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>171</v>
-      </c>
-      <c r="B57" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>172</v>
-      </c>
-      <c r="B58" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>173</v>
-      </c>
-      <c r="B59" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>174</v>
-      </c>
-      <c r="B60" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>176</v>
-      </c>
-      <c r="B62" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>177</v>
-      </c>
-      <c r="B63" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>178</v>
-      </c>
-      <c r="B64" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>179</v>
-      </c>
-      <c r="B65" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>180</v>
-      </c>
-      <c r="B66" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>181</v>
-      </c>
-      <c r="B67" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>183</v>
-      </c>
-      <c r="B69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>184</v>
-      </c>
-      <c r="B70" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>185</v>
-      </c>
-      <c r="B71" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>186</v>
-      </c>
-      <c r="B72" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>187</v>
-      </c>
-      <c r="B73" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>188</v>
-      </c>
-      <c r="B74" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>189</v>
-      </c>
-      <c r="B75" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>190</v>
-      </c>
-      <c r="B76" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>191</v>
-      </c>
-      <c r="B77" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>192</v>
-      </c>
-      <c r="B78" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>193</v>
-      </c>
-      <c r="B79" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>194</v>
-      </c>
-      <c r="B80" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>195</v>
-      </c>
-      <c r="B81" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>196</v>
-      </c>
-      <c r="B82" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>197</v>
-      </c>
-      <c r="B83" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>198</v>
-      </c>
-      <c r="B84" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>199</v>
-      </c>
-      <c r="B85" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>200</v>
-      </c>
-      <c r="B86" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>201</v>
-      </c>
-      <c r="B87" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>202</v>
-      </c>
-      <c r="B88" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>203</v>
-      </c>
-      <c r="B89" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>204</v>
-      </c>
-      <c r="B90" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
         <v>205</v>
-      </c>
-      <c r="B91" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>207</v>
-      </c>
-      <c r="B93" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>208</v>
-      </c>
-      <c r="B94" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>209</v>
-      </c>
-      <c r="B95" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>210</v>
-      </c>
-      <c r="B96" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>211</v>
-      </c>
-      <c r="B97" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>212</v>
-      </c>
-      <c r="B98" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>213</v>
-      </c>
-      <c r="B99" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>214</v>
-      </c>
-      <c r="B100" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>215</v>
-      </c>
-      <c r="B101" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>216</v>
-      </c>
-      <c r="B102" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>217</v>
-      </c>
-      <c r="B103" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>218</v>
-      </c>
-      <c r="B104" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>219</v>
-      </c>
-      <c r="B105" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>220</v>
-      </c>
-      <c r="B106" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>221</v>
-      </c>
-      <c r="B107" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>222</v>
-      </c>
-      <c r="B108" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>223</v>
-      </c>
-      <c r="B109" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>224</v>
-      </c>
-      <c r="B110" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>225</v>
-      </c>
-      <c r="B111" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>226</v>
-      </c>
-      <c r="B112" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>227</v>
-      </c>
-      <c r="B113" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>228</v>
-      </c>
-      <c r="B114" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>229</v>
-      </c>
-      <c r="B115" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>230</v>
-      </c>
-      <c r="B116" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>231</v>
-      </c>
-      <c r="B117" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>232</v>
-      </c>
-      <c r="B118" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>233</v>
-      </c>
-      <c r="B119" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>234</v>
-      </c>
-      <c r="B120" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>235</v>
-      </c>
-      <c r="B121" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>236</v>
-      </c>
-      <c r="B122" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>237</v>
-      </c>
-      <c r="B123" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>238</v>
-      </c>
-      <c r="B124" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>239</v>
-      </c>
-      <c r="B125" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>240</v>
-      </c>
-      <c r="B126" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>241</v>
-      </c>
-      <c r="B127" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>242</v>
-      </c>
-      <c r="B128" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>243</v>
-      </c>
-      <c r="B129" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>244</v>
-      </c>
-      <c r="B130" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4496,7 +3320,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4504,13 +3328,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>376</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4526,24 +3350,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="C3">
-        <v>1.666666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C4">
-        <v>1.666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4570,13 +3394,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="C7">
-        <v>1.666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4592,211 +3416,211 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.8666666666666667</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="C12">
-        <v>0.8666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.2</v>
+        <v>0.88</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>1.466666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.4</v>
+        <v>0.72</v>
       </c>
       <c r="C14">
-        <v>0.6666666666666666</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>0.52</v>
+        <v>0.08</v>
       </c>
       <c r="C15">
-        <v>0.8666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.4</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="C17">
-        <v>0.6666666666666666</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="C18">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="C19">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="C20">
-        <v>0.7333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="C21">
-        <v>0.4</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="C22">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>0.52</v>
+        <v>0.28</v>
       </c>
       <c r="C23">
-        <v>0.8666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C24">
-        <v>1.066666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>0.76</v>
+        <v>0.24</v>
       </c>
       <c r="C25">
-        <v>1.266666666666667</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>0.84</v>
+        <v>0.2</v>
       </c>
       <c r="C26">
-        <v>1.4</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="C27">
-        <v>1.466666666666667</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4807,194 +3631,194 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>1.666666666666667</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="C29">
-        <v>0.7333333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0.3333333333333333</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.8666666666666667</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="C32">
-        <v>0.7333333333333333</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="C33">
-        <v>0.3333333333333333</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>0.72</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C34">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="C35">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="C36">
-        <v>1.666666666666667</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1.266666666666667</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>0.28</v>
+        <v>0.92</v>
       </c>
       <c r="C38">
-        <v>0.4666666666666667</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.6666666666666666</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
       <c r="C40">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B41">
-        <v>0.12</v>
+        <v>0.72</v>
       </c>
       <c r="C41">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B42">
-        <v>0.2</v>
+        <v>0.72</v>
       </c>
       <c r="C42">
-        <v>0.3333333333333333</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C43">
-        <v>0.3333333333333333</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C44">
-        <v>0.3333333333333333</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B45">
+        <v>0.08</v>
+      </c>
+      <c r="C45">
         <v>0.2</v>
-      </c>
-      <c r="C45">
-        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5005,931 +3829,7 @@
         <v>0.64</v>
       </c>
       <c r="C46">
-        <v>1.066666666666667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>19</v>
-      </c>
-      <c r="B47">
-        <v>0.76</v>
-      </c>
-      <c r="C47">
-        <v>1.266666666666667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>21</v>
-      </c>
-      <c r="B48">
-        <v>0.84</v>
-      </c>
-      <c r="C48">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>22</v>
-      </c>
-      <c r="B49">
-        <v>0.88</v>
-      </c>
-      <c r="C49">
-        <v>1.466666666666667</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>25</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>4</v>
-      </c>
-      <c r="B51">
-        <v>0.16</v>
-      </c>
-      <c r="C51">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>4</v>
-      </c>
-      <c r="B52">
-        <v>0.16</v>
-      </c>
-      <c r="C52">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>18</v>
-      </c>
-      <c r="B53">
-        <v>0.72</v>
-      </c>
-      <c r="C53">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>6</v>
-      </c>
-      <c r="B54">
-        <v>0.24</v>
-      </c>
-      <c r="C54">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>25</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>19</v>
-      </c>
-      <c r="B56">
-        <v>0.76</v>
-      </c>
-      <c r="C56">
-        <v>1.266666666666667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
-        <v>7</v>
-      </c>
-      <c r="B57">
-        <v>0.28</v>
-      </c>
-      <c r="C57">
-        <v>0.4666666666666667</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
-        <v>6</v>
-      </c>
-      <c r="B58">
-        <v>0.24</v>
-      </c>
-      <c r="C58">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
-        <v>16</v>
-      </c>
-      <c r="B59">
-        <v>0.64</v>
-      </c>
-      <c r="C59">
-        <v>1.066666666666667</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
-        <v>19</v>
-      </c>
-      <c r="B60">
-        <v>0.76</v>
-      </c>
-      <c r="C60">
-        <v>1.266666666666667</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>21</v>
-      </c>
-      <c r="B61">
-        <v>0.84</v>
-      </c>
-      <c r="C61">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
-        <v>22</v>
-      </c>
-      <c r="B62">
-        <v>0.88</v>
-      </c>
-      <c r="C62">
-        <v>1.466666666666667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
-        <v>25</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>5</v>
-      </c>
-      <c r="B64">
-        <v>0.2</v>
-      </c>
-      <c r="C64">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
-        <v>6</v>
-      </c>
-      <c r="B65">
-        <v>0.24</v>
-      </c>
-      <c r="C65">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
-        <v>6</v>
-      </c>
-      <c r="B66">
-        <v>0.24</v>
-      </c>
-      <c r="C66">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
-        <v>7</v>
-      </c>
-      <c r="B67">
-        <v>0.28</v>
-      </c>
-      <c r="C67">
-        <v>0.4666666666666667</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>10</v>
-      </c>
-      <c r="B68">
-        <v>0.4</v>
-      </c>
-      <c r="C68">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
-        <v>18</v>
-      </c>
-      <c r="B69">
-        <v>0.72</v>
-      </c>
-      <c r="C69">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
-        <v>6</v>
-      </c>
-      <c r="B70">
-        <v>0.24</v>
-      </c>
-      <c r="C70">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
-        <v>25</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
-        <v>19</v>
-      </c>
-      <c r="B72">
-        <v>0.76</v>
-      </c>
-      <c r="C72">
-        <v>1.266666666666667</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
-        <v>7</v>
-      </c>
-      <c r="B73">
-        <v>0.28</v>
-      </c>
-      <c r="C73">
-        <v>0.4666666666666667</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
-        <v>5</v>
-      </c>
-      <c r="B74">
-        <v>0.2</v>
-      </c>
-      <c r="C74">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>6</v>
-      </c>
-      <c r="B75">
-        <v>0.24</v>
-      </c>
-      <c r="C75">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>16</v>
-      </c>
-      <c r="B76">
-        <v>0.64</v>
-      </c>
-      <c r="C76">
-        <v>1.066666666666667</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>19</v>
-      </c>
-      <c r="B77">
-        <v>0.76</v>
-      </c>
-      <c r="C77">
-        <v>1.266666666666667</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
-        <v>21</v>
-      </c>
-      <c r="B78">
-        <v>0.84</v>
-      </c>
-      <c r="C78">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>22</v>
-      </c>
-      <c r="B79">
-        <v>0.88</v>
-      </c>
-      <c r="C79">
-        <v>1.466666666666667</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>25</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
-        <v>5</v>
-      </c>
-      <c r="B81">
-        <v>0.2</v>
-      </c>
-      <c r="C81">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>5</v>
-      </c>
-      <c r="B82">
-        <v>0.2</v>
-      </c>
-      <c r="C82">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>5</v>
-      </c>
-      <c r="B83">
-        <v>0.2</v>
-      </c>
-      <c r="C83">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>6</v>
-      </c>
-      <c r="B84">
-        <v>0.24</v>
-      </c>
-      <c r="C84">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>18</v>
-      </c>
-      <c r="B85">
-        <v>0.72</v>
-      </c>
-      <c r="C85">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>6</v>
-      </c>
-      <c r="B86">
-        <v>0.24</v>
-      </c>
-      <c r="C86">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>25</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>19</v>
-      </c>
-      <c r="B88">
-        <v>0.76</v>
-      </c>
-      <c r="C88">
-        <v>1.266666666666667</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
-        <v>7</v>
-      </c>
-      <c r="B89">
-        <v>0.28</v>
-      </c>
-      <c r="C89">
-        <v>0.4666666666666667</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
-        <v>14</v>
-      </c>
-      <c r="B90">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C90">
-        <v>0.9333333333333333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
-        <v>5</v>
-      </c>
-      <c r="B91">
-        <v>0.2</v>
-      </c>
-      <c r="C91">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
-        <v>5</v>
-      </c>
-      <c r="B92">
-        <v>0.2</v>
-      </c>
-      <c r="C92">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
-        <v>5</v>
-      </c>
-      <c r="B93">
-        <v>0.2</v>
-      </c>
-      <c r="C93">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
-        <v>6</v>
-      </c>
-      <c r="B94">
-        <v>0.24</v>
-      </c>
-      <c r="C94">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
-        <v>5</v>
-      </c>
-      <c r="B95">
-        <v>0.2</v>
-      </c>
-      <c r="C95">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
-        <v>5</v>
-      </c>
-      <c r="B96">
-        <v>0.2</v>
-      </c>
-      <c r="C96">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
-        <v>20</v>
-      </c>
-      <c r="B97">
-        <v>0.8</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
-        <v>25</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>20</v>
-      </c>
-      <c r="B99">
-        <v>0.8</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>25</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
-        <v>19</v>
-      </c>
-      <c r="B101">
-        <v>0.76</v>
-      </c>
-      <c r="C101">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
-        <v>25</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
-        <v>18</v>
-      </c>
-      <c r="B103">
-        <v>0.72</v>
-      </c>
-      <c r="C103">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104">
-        <v>18</v>
-      </c>
-      <c r="B104">
-        <v>0.72</v>
-      </c>
-      <c r="C104">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
-        <v>12</v>
-      </c>
-      <c r="B105">
-        <v>0.48</v>
-      </c>
-      <c r="C105">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106">
-        <v>15</v>
-      </c>
-      <c r="B106">
-        <v>0.6</v>
-      </c>
-      <c r="C106">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107">
-        <v>23</v>
-      </c>
-      <c r="B107">
-        <v>0.92</v>
-      </c>
-      <c r="C107">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108">
-        <v>23</v>
-      </c>
-      <c r="B108">
-        <v>0.92</v>
-      </c>
-      <c r="C108">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109">
-        <v>14</v>
-      </c>
-      <c r="B109">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C109">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110">
-        <v>10</v>
-      </c>
-      <c r="B110">
-        <v>0.4</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111">
-        <v>3</v>
-      </c>
-      <c r="B111">
-        <v>0.12</v>
-      </c>
-      <c r="C111">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112">
-        <v>23</v>
-      </c>
-      <c r="B112">
-        <v>0.92</v>
-      </c>
-      <c r="C112">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113">
-        <v>7</v>
-      </c>
-      <c r="B113">
-        <v>0.28</v>
-      </c>
-      <c r="C113">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114">
-        <v>25</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115">
-        <v>23</v>
-      </c>
-      <c r="B115">
-        <v>0.92</v>
-      </c>
-      <c r="C115">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116">
-        <v>25</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117">
-        <v>5</v>
-      </c>
-      <c r="B117">
-        <v>0.2</v>
-      </c>
-      <c r="C117">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118">
-        <v>3</v>
-      </c>
-      <c r="B118">
-        <v>0.12</v>
-      </c>
-      <c r="C118">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119">
-        <v>12</v>
-      </c>
-      <c r="B119">
-        <v>0.48</v>
-      </c>
-      <c r="C119">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120">
-        <v>10</v>
-      </c>
-      <c r="B120">
-        <v>0.4</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121">
-        <v>3</v>
-      </c>
-      <c r="B121">
-        <v>0.12</v>
-      </c>
-      <c r="C121">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122">
-        <v>3</v>
-      </c>
-      <c r="B122">
-        <v>0.12</v>
-      </c>
-      <c r="C122">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123">
-        <v>15</v>
-      </c>
-      <c r="B123">
-        <v>0.6</v>
-      </c>
-      <c r="C123">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124">
-        <v>3</v>
-      </c>
-      <c r="B124">
-        <v>0.12</v>
-      </c>
-      <c r="C124">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125">
-        <v>14</v>
-      </c>
-      <c r="B125">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C125">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126">
-        <v>10</v>
-      </c>
-      <c r="B126">
-        <v>0.4</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127">
-        <v>2</v>
-      </c>
-      <c r="B127">
-        <v>0.08</v>
-      </c>
-      <c r="C127">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128">
-        <v>2</v>
-      </c>
-      <c r="B128">
-        <v>0.08</v>
-      </c>
-      <c r="C128">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129">
-        <v>17</v>
-      </c>
-      <c r="B129">
-        <v>0.68</v>
-      </c>
-      <c r="C129">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130">
-        <v>3</v>
-      </c>
-      <c r="B130">
-        <v>0.12</v>
-      </c>
-      <c r="C130">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/results/DRSA/FileVC_DRSA_DOMApriori_NEW0.xlsx
+++ b/results/DRSA/FileVC_DRSA_DOMApriori_NEW0.xlsx
@@ -509,139 +509,139 @@
     <t>Reguła 45</t>
   </si>
   <si>
-    <t>(age &gt;=  23.0) =&gt; (class &lt;= 1) ['a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) =&gt; (class &lt;= 1) ['a22', 'a2', 'a11', 'a24', 'a3', 'a15', 'a10', 'a7', 'a6', 'a1', 'a9', 'a17', 'a21']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a3', 'a7', 'a1', 'a13', 'a23']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a14', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(cleavage_stage &gt;=  2.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  33.0) =&gt; (class &lt;= 1) ['a18', 'a2', 'a22', 'a20', 'a19', 'a3', 'a15', 'a10', 'a5', 'a4', 'a17', 'a8', 'a13', 'a14', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  40.0) =&gt; (class &lt;= 1) ['a20', 'a15', 'a3', 'a14', 'a23']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a14', 'a18', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  32.0) =&gt; (class &lt;= 1) ['a18', 'a2', 'a22', 'a20', 'a19', 'a3', 'a15', 'a10', 'a5', 'a21', 'a6', 'a4', 'a17', 'a16', 'a8', 'a13', 'a14', 'a23']</t>
+    <t>(age &gt;=  23.0) =&gt; (class &lt;= 1) ['a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  0.0) =&gt; (class &lt;= 1) ['a1', 'a11', 'a24', 'a6', 'a9', 'a2', 'a22', 'a10', 'a21', 'a3', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a13', 'a3', 'a7', 'a23']</t>
+  </si>
+  <si>
+    <t>(endometrium &gt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a3', 'a14']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(cleavage_stage &gt;=  2.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  33.0) =&gt; (class &lt;= 1) ['a23', 'a18', 'a4', 'a13', 'a5', 'a14', 'a20', 'a2', 'a22', 'a10', 'a19', 'a3', 'a8', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  40.0) =&gt; (class &lt;= 1) ['a14', 'a20', 'a3', 'a23', 'a15']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a8', 'a1', 'a13', 'a9', 'a19', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  32.0) =&gt; (class &lt;= 1) ['a23', 'a18', 'a4', 'a6', 'a5', 'a13', 'a14', 'a20', 'a2', 'a22', 'a10', 'a21', 'a19', 'a16', 'a3', 'a8', 'a15', 'a17']</t>
   </si>
   <si>
     <t>(sperm &gt;=  3.0) =&gt; (class &lt;= 1) ['a22', 'a25']</t>
   </si>
   <si>
-    <t>(frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a7', 'a3', 'a1']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a22', 'a25', 'a5', 'a4', 'a12', 'a13']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a22', 'a2', 'a11', 'a24', 'a3', 'a15', 'a10', 'a7', 'a1', 'a9', 'a17', 'a21']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a22', 'a25', 'a5', 'a4', 'a12', 'a13']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a7', 'a3', 'a1', 'a23']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a22', 'a25', 'a5', 'a4', 'a12', 'a13']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  2.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a2', 'a19', 'a10', 'a7', 'a17', 'a14', 'a23']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  4.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a22', 'a2', 'a11', 'a24', 'a19', 'a3', 'a15', 'a5', 'a1', 'a4', 'a12', 'a9', 'a21', 'a23']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  5.0) &amp; (cleavage_stage &gt;=  6.0) =&gt; (class &lt;= 1) ['a22', 'a11', 'a20', 'a3', 'a9', 'a23']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  7.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a22', 'a11', 'a3', 'a9', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a11', 'a6', 'a1', 'a8', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a18', 'a25', 'a19', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(pregnancy &gt;=  0.0) =&gt; (class &gt;= 2) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  1.0) =&gt; (class &gt;= 2) ['a11', 'a6', 'a8', 'a20', 'a10', 'a5', 'a17', 'a22', 'a2', 'a24', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(endometrium &lt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &gt;=  1.0) =&gt; (class &gt;= 2) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(pregnancy &gt;=  1.0) =&gt; (class &gt;= 2) ['a18', 'a25', 'a20', 'a19', 'a5', 'a4', 'a12', 'a16', 'a8', 'a13', 'a14', 'a23']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  34.0) =&gt; (class &gt;= 2) ['a18', 'a11', 'a25', 'a24', 'a5', 'a7', 'a21', 'a6', 'a1', 'a12', 'a9', 'a16', 'a8', 'a13']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  32.0) =&gt; (class &gt;= 2) ['a11', 'a25', 'a24', 'a7', 'a6', 'a1', 'a12', 'a9', 'a16', 'a21']</t>
+    <t>(frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a7', 'a3']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a4', 'a13', 'a5', 'a22', 'a25', 'a12']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a1', 'a11', 'a24', 'a9', 'a2', 'a22', 'a10', 'a21', 'a3', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a4', 'a13', 'a5', 'a22', 'a25', 'a12']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  3.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a1', 'a7', 'a23', 'a3']</t>
+  </si>
+  <si>
+    <t>(endometrium &gt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a4', 'a13', 'a5', 'a22', 'a25', 'a12']</t>
+  </si>
+  <si>
+    <t>(endometrium &gt;=  2.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a14', 'a2', 'a10', 'a19', 'a7', 'a23', 'a17']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &lt;=  4.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a1', 'a11', 'a23', 'a24', 'a4', 'a5', 'a9', 'a2', 'a22', 'a21', 'a19', 'a3', 'a15', 'a12']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &lt;=  5.0) &amp; (cleavage_stage &gt;=  6.0) =&gt; (class &lt;= 1) ['a11', 'a9', 'a20', 'a22', 'a3', 'a23']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &lt;=  7.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a11', 'a9', 'a22', 'a3', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a18', 'a24', 'a4', 'a6', 'a21', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a17']</t>
+  </si>
+  <si>
+    <t>(pregnancy &gt;=  0.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(attempts &lt;=  1.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a12', 'a2', 'a22', 'a25', 'a8', 'a9', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(endometrium &lt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &gt;=  1.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(pregnancy &gt;=  1.0) =&gt; (class &gt;= 2) ['a18', 'a4', 'a13', 'a5', 'a14', 'a20', 'a19', 'a16', 'a25', 'a8', 'a23', 'a12']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  34.0) =&gt; (class &gt;= 2) ['a1', 'a11', 'a18', 'a24', 'a6', 'a5', 'a13', 'a9', 'a21', 'a16', 'a25', 'a8', 'a7', 'a12']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) =&gt; (class &gt;= 2) ['a1', 'a11', 'a24', 'a6', 'a9', 'a21', 'a16', 'a25', 'a7', 'a12']</t>
   </si>
   <si>
     <t>(frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a25', 'a6']</t>
   </si>
   <si>
-    <t>(cleavage_stage &lt;=  9.0) =&gt; (class &gt;= 2) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  41.0) =&gt; (class &gt;= 2) ['a11', 'a6', 'a1', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  4.0) =&gt; (class &gt;= 2) ['a11', 'a3', 'a1', 'a6', 'a8', 'a23', 'a20', 'a10', 'a5', 'a17', 'a13', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a18', 'a25', 'a19', 'a15', 'a12', 'a21']</t>
-  </si>
-  <si>
-    <t>(pregnancy &gt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a20', 'a19', 'a5', 'a4', 'a12', 'a16', 'a8', 'a13', 'a14', 'a23']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a2', 'a11', 'a24', 'a20', 'a19', 'a15', 'a10', 'a5', 'a6', 'a4', 'a12', 'a9', 'a16', 'a8', 'a17', 'a21', 'a14']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  1.0) &amp; (frozen_embryos &gt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a11', 'a22', 'a25', 'a20', 'a19', 'a15', 'a10', 'a5', 'a6', 'a4', 'a12', 'a9', 'a16', 'a8', 'a17', 'a21', 'a14']</t>
-  </si>
-  <si>
-    <t>(endometrium &lt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a11', 'a24', 'a20', 'a3', 'a15', 'a5', 'a21', 'a1', 'a4', 'a12', 'a9', 'a8', 'a13']</t>
-  </si>
-  <si>
-    <t>(endometrium &lt;=  1.0) &amp; (frozen_embryos &gt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a11', 'a22', 'a20', 'a3', 'a15', 'a5', 'a21', 'a1', 'a4', 'a12', 'a9', 'a8', 'a13']</t>
+    <t>(cleavage_stage &lt;=  9.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a20', 'a21', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(attempts &lt;=  4.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(pregnancy &gt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a4', 'a13', 'a5', 'a14', 'a20', 'a19', 'a16', 'a8', 'a23', 'a12']</t>
+  </si>
+  <si>
+    <t>(attempts &lt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a18', 'a24', 'a4', 'a6', 'a5', 'a14', 'a9', 'a20', 'a2', 'a10', 'a21', 'a19', 'a16', 'a8', 'a15', 'a17', 'a12']</t>
+  </si>
+  <si>
+    <t>(attempts &lt;=  1.0) &amp; (frozen_embryos &gt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a18', 'a4', 'a6', 'a5', 'a14', 'a9', 'a20', 'a22', 'a10', 'a21', 'a19', 'a16', 'a25', 'a8', 'a15', 'a17', 'a12']</t>
+  </si>
+  <si>
+    <t>(endometrium &lt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a1', 'a11', 'a18', 'a24', 'a4', 'a13', 'a5', 'a9', 'a20', 'a21', 'a3', 'a8', 'a15', 'a12']</t>
+  </si>
+  <si>
+    <t>(endometrium &lt;=  1.0) &amp; (frozen_embryos &gt;=  2.0) =&gt; (class &gt;= 2) ['a1', 'a11', 'a18', 'a4', 'a13', 'a5', 'a9', 'a20', 'a22', 'a21', 'a3', 'a8', 'a15', 'a12']</t>
   </si>
   <si>
     <t>(sperm &lt;=  2.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6']</t>
   </si>
   <si>
-    <t>(sperm &lt;=  2.0) &amp; (frozen_embryos &gt;=  3.0) =&gt; (class &gt;= 2) ['a18', 'a20', 'a19', 'a15', 'a7', 'a21', 'a6', 'a1', 'a12', 'a9', 'a16', 'a8', 'a17', 'a13', 'a14', 'a23']</t>
+    <t>(sperm &lt;=  2.0) &amp; (frozen_embryos &gt;=  3.0) =&gt; (class &gt;= 2) ['a1', 'a18', 'a23', 'a6', 'a13', 'a14', 'a9', 'a20', 'a21', 'a19', 'a16', 'a8', 'a7', 'a15', 'a17', 'a12']</t>
   </si>
   <si>
     <t>support</t>
@@ -659,10 +659,10 @@
     <t>f1_score</t>
   </si>
   <si>
+    <t>accuracy</t>
+  </si>
+  <si>
     <t>correct</t>
-  </si>
-  <si>
-    <t>accuracy</t>
   </si>
   <si>
     <t>Obiekt</t>

--- a/results/DRSA/FileVC_DRSA_DOMApriori_NEW0.xlsx
+++ b/results/DRSA/FileVC_DRSA_DOMApriori_NEW0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="169">
   <si>
     <t>name</t>
   </si>
@@ -335,24 +335,36 @@
     <t>objects</t>
   </si>
   <si>
+    <t>['a1', 'a3', 'a7', 'a13', 'a14', 'a15', 'a22', 'a25']</t>
+  </si>
+  <si>
     <t>upper_approx_downward_union</t>
   </si>
   <si>
+    <t>['a1', 'a2', 'a3', 'a4', 'a5', 'a7', 'a8', 'a10', 'a13', 'a14', 'a15', 'a17', 'a18', 'a19', 'a20', 'a21', 'a22', 'a23', 'a25']</t>
+  </si>
+  <si>
     <t>boundaries_downward_union</t>
   </si>
   <si>
     <t>class</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>['a2', 'a4', 'a5', 'a8', 'a10', 'a17', 'a18', 'a19', 'a20', 'a21', 'a23']</t>
   </si>
   <si>
     <t>lower_approx_upward_union</t>
   </si>
   <si>
+    <t>['a6', 'a9', 'a11', 'a12', 'a16', 'a24']</t>
+  </si>
+  <si>
     <t>upper_approx_upward_union</t>
   </si>
   <si>
+    <t>['a2', 'a4', 'a5', 'a6', 'a8', 'a9', 'a10', 'a11', 'a12', 'a16', 'a17', 'a18', 'a19', 'a20', 'a21', 'a23', 'a24']</t>
+  </si>
+  <si>
     <t>boundaries_upward_union</t>
   </si>
   <si>
@@ -431,217 +443,61 @@
     <t>Reguła 19</t>
   </si>
   <si>
-    <t>Reguła 20</t>
-  </si>
-  <si>
-    <t>Reguła 21</t>
-  </si>
-  <si>
-    <t>Reguła 22</t>
-  </si>
-  <si>
-    <t>Reguła 23</t>
-  </si>
-  <si>
-    <t>Reguła 24</t>
-  </si>
-  <si>
-    <t>Reguła 25</t>
-  </si>
-  <si>
-    <t>Reguła 26</t>
-  </si>
-  <si>
-    <t>Reguła 27</t>
-  </si>
-  <si>
-    <t>Reguła 28</t>
-  </si>
-  <si>
-    <t>Reguła 29</t>
-  </si>
-  <si>
-    <t>Reguła 30</t>
-  </si>
-  <si>
-    <t>Reguła 31</t>
-  </si>
-  <si>
-    <t>Reguła 32</t>
-  </si>
-  <si>
-    <t>Reguła 33</t>
-  </si>
-  <si>
-    <t>Reguła 34</t>
-  </si>
-  <si>
-    <t>Reguła 35</t>
-  </si>
-  <si>
-    <t>Reguła 36</t>
-  </si>
-  <si>
-    <t>Reguła 37</t>
-  </si>
-  <si>
-    <t>Reguła 38</t>
-  </si>
-  <si>
-    <t>Reguła 39</t>
-  </si>
-  <si>
-    <t>Reguła 40</t>
-  </si>
-  <si>
-    <t>Reguła 41</t>
-  </si>
-  <si>
-    <t>Reguła 42</t>
-  </si>
-  <si>
-    <t>Reguła 43</t>
-  </si>
-  <si>
-    <t>Reguła 44</t>
-  </si>
-  <si>
-    <t>Reguła 45</t>
-  </si>
-  <si>
-    <t>(age &gt;=  23.0) =&gt; (class &lt;= 1) ['a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) =&gt; (class &lt;= 1) ['a1', 'a11', 'a24', 'a6', 'a9', 'a2', 'a22', 'a10', 'a21', 'a3', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a13', 'a3', 'a7', 'a23']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a3', 'a14']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(cleavage_stage &gt;=  2.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  33.0) =&gt; (class &lt;= 1) ['a23', 'a18', 'a4', 'a13', 'a5', 'a14', 'a20', 'a2', 'a22', 'a10', 'a19', 'a3', 'a8', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  40.0) =&gt; (class &lt;= 1) ['a14', 'a20', 'a3', 'a23', 'a15']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a8', 'a1', 'a13', 'a9', 'a19', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  32.0) =&gt; (class &lt;= 1) ['a23', 'a18', 'a4', 'a6', 'a5', 'a13', 'a14', 'a20', 'a2', 'a22', 'a10', 'a21', 'a19', 'a16', 'a3', 'a8', 'a15', 'a17']</t>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a14', 'a3']</t>
   </si>
   <si>
     <t>(sperm &gt;=  3.0) =&gt; (class &lt;= 1) ['a22', 'a25']</t>
   </si>
   <si>
-    <t>(frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a7', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a4', 'a13', 'a5', 'a22', 'a25', 'a12']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a1', 'a11', 'a24', 'a9', 'a2', 'a22', 'a10', 'a21', 'a3', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a4', 'a13', 'a5', 'a22', 'a25', 'a12']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a1', 'a7', 'a23', 'a3']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a4', 'a13', 'a5', 'a22', 'a25', 'a12']</t>
-  </si>
-  <si>
-    <t>(endometrium &gt;=  2.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a14', 'a2', 'a10', 'a19', 'a7', 'a23', 'a17']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  4.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a1', 'a11', 'a23', 'a24', 'a4', 'a5', 'a9', 'a2', 'a22', 'a21', 'a19', 'a3', 'a15', 'a12']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  5.0) &amp; (cleavage_stage &gt;=  6.0) =&gt; (class &lt;= 1) ['a11', 'a9', 'a20', 'a22', 'a3', 'a23']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &lt;=  7.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a11', 'a9', 'a22', 'a3', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a18', 'a24', 'a4', 'a6', 'a21', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a17']</t>
-  </si>
-  <si>
-    <t>(pregnancy &gt;=  0.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  1.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a12', 'a2', 'a22', 'a25', 'a8', 'a9', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(endometrium &lt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &gt;=  1.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(pregnancy &gt;=  1.0) =&gt; (class &gt;= 2) ['a18', 'a4', 'a13', 'a5', 'a14', 'a20', 'a19', 'a16', 'a25', 'a8', 'a23', 'a12']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  34.0) =&gt; (class &gt;= 2) ['a1', 'a11', 'a18', 'a24', 'a6', 'a5', 'a13', 'a9', 'a21', 'a16', 'a25', 'a8', 'a7', 'a12']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  32.0) =&gt; (class &gt;= 2) ['a1', 'a11', 'a24', 'a6', 'a9', 'a21', 'a16', 'a25', 'a7', 'a12']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a25', 'a6']</t>
-  </si>
-  <si>
-    <t>(cleavage_stage &lt;=  9.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  41.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a20', 'a21', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  4.0) =&gt; (class &gt;= 2) ['a11', 'a5', 'a10', 'a23', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a12', 'a2', 'a22', 'a25', 'a8', 'a1', 'a13', 'a9', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(pregnancy &gt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a4', 'a13', 'a5', 'a14', 'a20', 'a19', 'a16', 'a8', 'a23', 'a12']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a18', 'a24', 'a4', 'a6', 'a5', 'a14', 'a9', 'a20', 'a2', 'a10', 'a21', 'a19', 'a16', 'a8', 'a15', 'a17', 'a12']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  1.0) &amp; (frozen_embryos &gt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a18', 'a4', 'a6', 'a5', 'a14', 'a9', 'a20', 'a22', 'a10', 'a21', 'a19', 'a16', 'a25', 'a8', 'a15', 'a17', 'a12']</t>
-  </si>
-  <si>
-    <t>(endometrium &lt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a1', 'a11', 'a18', 'a24', 'a4', 'a13', 'a5', 'a9', 'a20', 'a21', 'a3', 'a8', 'a15', 'a12']</t>
-  </si>
-  <si>
-    <t>(endometrium &lt;=  1.0) &amp; (frozen_embryos &gt;=  2.0) =&gt; (class &gt;= 2) ['a1', 'a11', 'a18', 'a4', 'a13', 'a5', 'a9', 'a20', 'a22', 'a21', 'a3', 'a8', 'a15', 'a12']</t>
+    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a3']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  0.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a22']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  3.0) &amp; (frozen_embryos &lt;=  2.0) =&gt; (class &lt;= 1) ['a3']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  3.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a13']</t>
+  </si>
+  <si>
+    <t>(endometrium &gt;=  2.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a25']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  2.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a22']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  40.0) &amp; (pregnancy &lt;=  0.0) =&gt; (class &lt;= 1) ['a15', 'a3']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  40.0) &amp; (frozen_embryos &lt;=  2.0) =&gt; (class &lt;= 1) ['a3']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  23.0) &amp; (frozen_embryos &lt;=  2.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a3']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  33.0) &amp; (pregnancy &lt;=  0.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a22', 'a3']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  22.0) =&gt; (class &gt;= 2) ['a11']</t>
   </si>
   <si>
     <t>(sperm &lt;=  2.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6']</t>
   </si>
   <si>
-    <t>(sperm &lt;=  2.0) &amp; (frozen_embryos &gt;=  3.0) =&gt; (class &gt;= 2) ['a1', 'a18', 'a23', 'a6', 'a13', 'a14', 'a9', 'a20', 'a21', 'a19', 'a16', 'a8', 'a7', 'a15', 'a17', 'a12']</t>
+    <t>(age &lt;=  32.0) &amp; (pregnancy &gt;=  1.0) &amp; (endometrium &lt;=  1.0) =&gt; (class &gt;= 2) ['a12']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) &amp; (pregnancy &gt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a16', 'a12']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) &amp; (sperm &lt;=  2.0) &amp; (cleavage_stage &lt;=  2.0) =&gt; (class &gt;= 2) ['a16']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  31.0) &amp; (attempts &lt;=  1.0) &amp; (endometrium &lt;=  1.0) =&gt; (class &gt;= 2) ['a11', 'a24', 'a12', 'a9']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  31.0) &amp; (attempts &lt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a24', 'a12', 'a9']</t>
   </si>
   <si>
     <t>support</t>
@@ -653,16 +509,16 @@
     <t>coverage</t>
   </si>
   <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
     <t>not_classified</t>
   </si>
   <si>
     <t>f1_score</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>correct</t>
   </si>
   <si>
     <t>Obiekt</t>
@@ -1879,34 +1735,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="B2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.4581818181818182</v>
       </c>
     </row>
   </sheetData>
@@ -1924,21 +1780,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1981,9 +1837,6 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="C6">
         <v>2</v>
       </c>
@@ -1993,7 +1846,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2015,7 +1868,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2026,7 +1879,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2036,9 +1889,6 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
       <c r="C11">
         <v>1</v>
       </c>
@@ -2048,7 +1898,7 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2059,7 +1909,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2069,9 +1919,6 @@
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
       <c r="C14">
         <v>1</v>
       </c>
@@ -2091,9 +1938,6 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
       <c r="C16">
         <v>1</v>
       </c>
@@ -2103,7 +1947,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2113,9 +1957,6 @@
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
       <c r="C18">
         <v>1</v>
       </c>
@@ -2124,9 +1965,6 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
       <c r="C19">
         <v>1</v>
       </c>
@@ -2135,9 +1973,6 @@
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
       <c r="C20">
         <v>1</v>
       </c>
@@ -2146,9 +1981,6 @@
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
       <c r="C21">
         <v>1</v>
       </c>
@@ -2158,7 +1990,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2191,7 +2023,7 @@
         <v>34</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2202,7 +2034,7 @@
         <v>35</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2258,7 +2090,7 @@
         <v>42</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -2792,12 +2624,12 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2813,17 +2645,17 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>102</v>
@@ -2834,12 +2666,12 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2855,12 +2687,12 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2876,17 +2708,17 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>102</v>
@@ -2897,39 +2729,39 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +2771,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2947,370 +2779,162 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
         <v>157</v>
-      </c>
-      <c r="B43" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>159</v>
-      </c>
-      <c r="B45" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3320,7 +2944,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3328,156 +2952,156 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.96</v>
+        <v>0.08</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.52</v>
+        <v>0.08</v>
       </c>
       <c r="C3">
-        <v>0.8666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="C4">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="C5">
-        <v>1.666666666666667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="C6">
-        <v>1.666666666666667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="C7">
-        <v>0.1333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="C8">
-        <v>1.666666666666667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="C9">
-        <v>1.666666666666667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="C10">
-        <v>1.666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.04</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>0.88</v>
+        <v>0.08</v>
       </c>
       <c r="C13">
-        <v>1.466666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>0.72</v>
+        <v>0.04</v>
       </c>
       <c r="C14">
-        <v>1.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3488,348 +3112,62 @@
         <v>0.08</v>
       </c>
       <c r="C15">
-        <v>0.1333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="C16">
-        <v>1.666666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="C17">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
       <c r="C18">
-        <v>0.4</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="C19">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="C20">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>0.16</v>
-      </c>
-      <c r="C21">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>0.24</v>
-      </c>
-      <c r="C22">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>0.28</v>
-      </c>
-      <c r="C23">
-        <v>0.4666666666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>14</v>
-      </c>
-      <c r="B24">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C24">
-        <v>0.9333333333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>0.24</v>
-      </c>
-      <c r="C25">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>0.2</v>
-      </c>
-      <c r="C26">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>20</v>
-      </c>
-      <c r="B27">
-        <v>0.8</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>20</v>
-      </c>
-      <c r="B29">
-        <v>0.8</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>25</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>25</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>12</v>
-      </c>
-      <c r="B32">
-        <v>0.48</v>
-      </c>
-      <c r="C32">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>23</v>
-      </c>
-      <c r="B33">
-        <v>0.92</v>
-      </c>
-      <c r="C33">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>14</v>
-      </c>
-      <c r="B34">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C34">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35">
-        <v>0.4</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36">
-        <v>0.12</v>
-      </c>
-      <c r="C36">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>25</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>23</v>
-      </c>
-      <c r="B38">
-        <v>0.92</v>
-      </c>
-      <c r="C38">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>25</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>11</v>
-      </c>
-      <c r="B40">
-        <v>0.44</v>
-      </c>
-      <c r="C40">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>18</v>
-      </c>
-      <c r="B41">
-        <v>0.72</v>
-      </c>
-      <c r="C41">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>18</v>
-      </c>
-      <c r="B42">
-        <v>0.72</v>
-      </c>
-      <c r="C42">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>14</v>
-      </c>
-      <c r="B43">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C43">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>14</v>
-      </c>
-      <c r="B44">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C44">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>0.08</v>
-      </c>
-      <c r="C45">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>16</v>
-      </c>
-      <c r="B46">
-        <v>0.64</v>
-      </c>
-      <c r="C46">
-        <v>1.6</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
   </sheetData>
